--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -496,6 +496,1295 @@
           </c:marker>
           <c:val>
             <c:numRef>
+              <c:f>风力2!$C$5:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$7:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$8:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$10:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$11:$Z$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$12:$Z$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$13:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>风力2!$C$14:$Z$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-80B1-4050-AC19-1691390D4AAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="528689544"/>
+        <c:axId val="528685936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="528689544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528685936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="528685936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528689544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
               <c:f>风力3!$C$5:$Z$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1718,7 +3007,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -3007,7 +4296,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -4304,7 +5593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -5603,7 +6892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -6892,7 +8181,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8382,6 +9671,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11517,7 +12846,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE692D3-9F07-40FA-AF9D-A5FABBFF5158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11558,7 +13444,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11599,7 +13485,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11640,7 +13526,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11681,7 +13567,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11722,7 +13608,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13917,8 +15803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14852,6 +16738,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15874,7 +17761,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">(C$15+RAND()*1000+_xlfn.GAUSS(RAND()*2-1)*1000)/500</f>
-        <v>4.5934918473049091</v>
+        <v>3.7863526105811465</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -15887,14 +17774,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.20432259731697539</v>
+        <v>0.14506940133419688</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.33776022088021995</v>
+        <v>0.14433840697087308</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -15908,14 +17795,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.22108256734750376</v>
+        <v>0.16555527955814398</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.10541440611970243</v>
+        <v>5.2419106349185007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16945,7 +18832,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">(C$15+RAND()*1000+_xlfn.GAUSS(RAND()*2-1)*1000)/500</f>
-        <v>2.5312221563351591</v>
+        <v>1.2717458219656257</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -16958,14 +18845,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.28610121367978592</v>
+        <v>7.8591798154733716E-2</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.30406073573151737</v>
+        <v>-0.32225124944127026</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -16979,14 +18866,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.19425049911300918</v>
+        <v>0.27826669219401012</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.21321582856186572</v>
+        <v>8.0719223806072327E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18015,7 +19902,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/100*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)+1</f>
-        <v>5.2536554715746178</v>
+        <v>6.6366048672202158</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -18055,7 +19942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -19070,7 +20957,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/100*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*4</f>
-        <v>4.9763037496833933</v>
+        <v>4.8537419689305219</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -19083,14 +20970,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.31260120401877667</v>
+        <v>0.14799283993275869</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.20363060017039775</v>
+        <v>-0.11388800192429344</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -19104,14 +20991,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.27230280095297865</v>
+        <v>-0.30116904897657809</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-9.4459075340205645E-2</v>
+        <v>-0.23342266618689578</v>
       </c>
     </row>
   </sheetData>
@@ -20140,7 +22027,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/500*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*2</f>
-        <v>5.0510287148495827</v>
+        <v>5.2885306807922277</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -20181,7 +22068,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -21195,7 +23082,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/400*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*2</f>
-        <v>5.1359245462153558</v>
+        <v>5.4992702289337263</v>
       </c>
     </row>
     <row r="21" spans="2:20">

--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="4" r:id="rId1"/>
@@ -14375,7 +14375,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3:Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14928,10 +14928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14972,16 +14972,16 @@
         <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="D3" s="2">
-        <v>3000</v>
+        <v>1600</v>
       </c>
       <c r="E3" s="2">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F3" s="2">
-        <v>-400</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -14991,6 +14991,78 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>14</v>
+      </c>
+      <c r="Q4">
+        <v>15</v>
+      </c>
+      <c r="R4">
+        <v>16</v>
+      </c>
+      <c r="S4">
+        <v>17</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>19</v>
+      </c>
+      <c r="V4">
+        <v>20</v>
+      </c>
+      <c r="W4">
+        <v>21</v>
+      </c>
+      <c r="X4">
+        <v>22</v>
+      </c>
+      <c r="Y4">
+        <v>23</v>
+      </c>
+      <c r="Z4">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5">
@@ -15790,6 +15862,80 @@
       </c>
       <c r="Z14">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="C16">
+        <v>1.7</v>
+      </c>
+      <c r="D16">
+        <v>1.4</v>
+      </c>
+      <c r="E16">
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="F16">
+        <v>1.6</v>
+      </c>
+      <c r="G16">
+        <v>1.6</v>
+      </c>
+      <c r="H16">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="I16">
+        <v>1.9</v>
+      </c>
+      <c r="J16">
+        <v>2.1</v>
+      </c>
+      <c r="K16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L16">
+        <v>2.1</v>
+      </c>
+      <c r="M16">
+        <v>2.1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1.9</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="R16">
+        <v>1.9</v>
+      </c>
+      <c r="S16">
+        <v>2.1</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>2.5</v>
+      </c>
+      <c r="V16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X16">
+        <v>2.5</v>
+      </c>
+      <c r="Y16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Z16">
+        <v>1.7000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -17761,7 +17907,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">(C$15+RAND()*1000+_xlfn.GAUSS(RAND()*2-1)*1000)/500</f>
-        <v>3.7863526105811465</v>
+        <v>4.5231139475915079</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -17774,14 +17920,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.14506940133419688</v>
+        <v>-0.25521940517501068</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.14433840697087308</v>
+        <v>0.27815892595291236</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -17795,14 +17941,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.16555527955814398</v>
+        <v>-0.33991098509829198</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>5.2419106349185007E-2</v>
+        <v>0.27897725522114825</v>
       </c>
     </row>
   </sheetData>
@@ -18832,7 +18978,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">(C$15+RAND()*1000+_xlfn.GAUSS(RAND()*2-1)*1000)/500</f>
-        <v>1.2717458219656257</v>
+        <v>1.9717458201354379</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -18845,14 +18991,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>7.8591798154733716E-2</v>
+        <v>0.10394668195842871</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.32225124944127026</v>
+        <v>-0.21498538376941212</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -18866,14 +19012,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.27826669219401012</v>
+        <v>-0.19327817761411725</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>8.0719223806072327E-2</v>
+        <v>-0.21680205856442147</v>
       </c>
     </row>
   </sheetData>
@@ -19902,7 +20048,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/100*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)+1</f>
-        <v>6.6366048672202158</v>
+        <v>5.7996223038677783</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -20957,7 +21103,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/100*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*4</f>
-        <v>4.8537419689305219</v>
+        <v>3.7929031141139604</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -20970,14 +21116,14 @@
       <c r="B23" s="10"/>
       <c r="T23" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>0.14799283993275869</v>
+        <v>0.29673949072446215</v>
       </c>
     </row>
     <row r="24" spans="2:20">
       <c r="B24" s="10"/>
       <c r="T24" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.11388800192429344</v>
+        <v>0.2618263854030809</v>
       </c>
     </row>
     <row r="25" spans="2:20">
@@ -20991,14 +21137,14 @@
       <c r="B26" s="10"/>
       <c r="T26" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.30116904897657809</v>
+        <v>-0.26924764766339759</v>
       </c>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="10"/>
       <c r="T27" s="8">
         <f ca="1">_xlfn.GAUSS(RAND()*2-1)</f>
-        <v>-0.23342266618689578</v>
+        <v>-0.33329520881645464</v>
       </c>
     </row>
   </sheetData>
@@ -22027,7 +22173,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/500*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*2</f>
-        <v>5.2885306807922277</v>
+        <v>5.4644169211421065</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -22067,7 +22213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -23082,7 +23228,7 @@
       <c r="B20" s="10"/>
       <c r="C20" s="4">
         <f ca="1">C$15/400*((RAND()*2-1)*0.1+_xlfn.GAUSS(RAND()*2-1)*0.1+1)+(RAND()*2-1)+_xlfn.GAUSS(RAND()*2-1)*2</f>
-        <v>5.4992702289337263</v>
+        <v>4.0347237603005901</v>
       </c>
     </row>
     <row r="21" spans="2:20">
